--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5405568\Desktop\ANALISTA DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilianomireles/Documents/GitHub/Caso-ARMUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5172BC59-9B10-4449-84AD-704D762CE50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CDE77-8D78-024A-B913-4EB3F23E2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{42302B3F-4ADF-4546-AC95-80CD9F84B774}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{42302B3F-4ADF-4546-AC95-80CD9F84B774}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -910,6 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -934,7 +935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,120 +1252,120 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="9.109375" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="21" width="9.1640625" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>146</v>
       </c>
@@ -1383,15 +1383,15 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1419,11 +1419,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -1433,9 +1433,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1443,9 +1443,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -1453,9 +1453,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1463,11 +1463,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
@@ -1477,9 +1477,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
       <c r="D9" t="s">
         <v>29</v>
       </c>
@@ -1487,9 +1487,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -1497,9 +1497,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>31</v>
       </c>
@@ -1507,9 +1507,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -1517,9 +1517,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>39</v>
       </c>
@@ -1527,9 +1527,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>40</v>
       </c>
@@ -1537,9 +1537,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
       <c r="D15" t="s">
         <v>33</v>
       </c>
@@ -1547,9 +1547,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1557,11 +1557,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
@@ -1571,9 +1571,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -1581,9 +1581,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
         <v>30</v>
       </c>
@@ -1591,9 +1591,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1601,9 +1601,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" t="s">
         <v>35</v>
       </c>
@@ -1611,9 +1611,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
       <c r="D22" t="s">
         <v>39</v>
       </c>
@@ -1621,9 +1621,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
       <c r="D23" t="s">
         <v>40</v>
       </c>
@@ -1631,9 +1631,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
       <c r="D24" t="s">
         <v>33</v>
       </c>
@@ -1641,9 +1641,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1651,11 +1651,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1665,9 +1665,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
       <c r="D27" t="s">
         <v>49</v>
       </c>
@@ -1675,9 +1675,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
       <c r="D28" t="s">
         <v>50</v>
       </c>
@@ -1685,9 +1685,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
       <c r="D29" t="s">
         <v>51</v>
       </c>
@@ -1695,9 +1695,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
       <c r="D30" t="s">
         <v>52</v>
       </c>
@@ -1705,9 +1705,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
       <c r="D31" t="s">
         <v>53</v>
       </c>
@@ -1715,9 +1715,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
       <c r="D32" t="s">
         <v>58</v>
       </c>
@@ -1725,9 +1725,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -1735,9 +1735,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1765,12 +1765,12 @@
   <dimension ref="C3:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>28</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>62</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>63</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>65</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -1957,9 +1957,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="F4" s="6">
         <v>0.37361111111111112</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="8" t="s">
         <v>152</v>
       </c>
       <c r="H4">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>64</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -2142,13 +2142,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBD8531-5422-4155-B7E0-36ABD391561A}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>-100.379278343942</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>-100.386181582737</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>-100.381690676285</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>-100.379680971478</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>-100.18076209068499</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>-100.178529379522</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>-100.177221100506</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>-100.37568222604099</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>-100.172353280905</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-100.372651276044</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>-100.200263570834</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>-100.18367468630299</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>-100.40642965873199</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>-100.357837748777</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>-100.350229139126</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>-100.37583225261599</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>-100.212356592806</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>-100.203749984425</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>-100.368193073887</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>-100.369566223782</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>-100.368754896341</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>-100.224514031506</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>-100.36195612234</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>-100.354096487121</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>-100.350783279412</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>-100.355561431487</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-100.35778404494999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>-100.22399869659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>-100.32871945077601</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>-100.344055890649</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>-100.366950506827</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2972,14 +2972,14 @@
       <c r="G33">
         <v>10684</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I33">
         <v>-100.311442288073</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>-100.282866837407</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>-100.318158347135</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>-100.30387423034701</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>-100.31214789682301</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>-100.24587937791399</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>-100.259484057018</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>-100.241951457889</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>-100.24903745410801</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>-100.23017284786199</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>-100.315413960249</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>-100.251071856933</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>-100.37362479987399</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>-100.223624852947</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>-100.230098914956</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-100.31775640740101</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>-100.235860142498</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>-100.303948776743</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>-100.317986769461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>-100.299721389827</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>-100.237429048636</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -3488,11 +3488,11 @@
       <c r="H54">
         <v>25.653001850727499</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>-100.270167343629</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilianomireles/Documents/GitHub/Caso-ARMUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CDE77-8D78-024A-B913-4EB3F23E2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFD1EC6-4E3E-E040-8E2C-C35CB716D412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{42302B3F-4ADF-4546-AC95-80CD9F84B774}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{42302B3F-4ADF-4546-AC95-80CD9F84B774}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -1762,185 +1762,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EC65A8-E22C-4ADD-A6C1-7FF12FB869D0}">
-  <dimension ref="C3:K8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F2">
+        <v>-100.316540329685</v>
+      </c>
+      <c r="G2">
+        <v>25.696299705357699</v>
+      </c>
+      <c r="H2">
+        <v>150000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F3">
+        <v>-100.203822723291</v>
+      </c>
+      <c r="G3">
+        <v>25.663144275162701</v>
+      </c>
+      <c r="H3">
+        <v>300000</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F4">
+        <v>-100.145293206159</v>
+      </c>
+      <c r="G4">
+        <v>25.788838968288399</v>
+      </c>
+      <c r="H4">
+        <v>1500000</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H4">
-        <v>-100.316540329685</v>
-      </c>
-      <c r="I4">
-        <v>25.696299705357699</v>
-      </c>
-      <c r="J4">
-        <v>150000</v>
-      </c>
-      <c r="K4">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F5">
+        <v>-100.36760625475701</v>
+      </c>
+      <c r="G5">
+        <v>25.8149135756845</v>
+      </c>
+      <c r="H5">
+        <v>200000</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="H5">
-        <v>-100.203822723291</v>
-      </c>
-      <c r="I5">
-        <v>25.663144275162701</v>
-      </c>
-      <c r="J5">
-        <v>300000</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.58333333333333337</v>
+      <c r="E6" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="F6">
+        <v>-100.421277142195</v>
+      </c>
+      <c r="G6">
+        <v>25.744508021255999</v>
       </c>
       <c r="H6">
-        <v>-100.145293206159</v>
+        <v>123000</v>
       </c>
       <c r="I6">
-        <v>25.788838968288399</v>
-      </c>
-      <c r="J6">
-        <v>1500000</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H7">
-        <v>-100.36760625475701</v>
-      </c>
-      <c r="I7">
-        <v>25.8149135756845</v>
-      </c>
-      <c r="J7">
-        <v>200000</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H8">
-        <v>-100.421277142195</v>
-      </c>
-      <c r="I8">
-        <v>25.744508021255999</v>
-      </c>
-      <c r="J8">
-        <v>123000</v>
-      </c>
-      <c r="K8">
         <v>1</v>
       </c>
     </row>
@@ -1951,185 +1951,185 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7AD25B-A50E-4E1C-95DF-8D7469232A3D}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F2">
+        <v>-100.22854185603499</v>
+      </c>
+      <c r="G2">
+        <v>25.5504759613084</v>
+      </c>
+      <c r="H2">
+        <v>150000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>25.6851626595673</v>
+      </c>
+      <c r="H3">
+        <v>300000</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="G3">
-        <v>-100.22854185603499</v>
-      </c>
-      <c r="H3">
-        <v>25.5504759613084</v>
-      </c>
-      <c r="I3">
-        <v>150000</v>
-      </c>
-      <c r="J3">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F4">
+        <v>-100.24241411411499</v>
+      </c>
+      <c r="G4">
+        <v>25.664270895169299</v>
+      </c>
+      <c r="H4">
+        <v>1500000</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.45855324074074072</v>
+      </c>
+      <c r="F5">
+        <v>-100.381548186267</v>
+      </c>
+      <c r="G5">
+        <v>25.6642004612821</v>
+      </c>
+      <c r="H5">
+        <v>200000</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>142</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4">
+      <c r="E6" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F6">
+        <v>-100.318156048963</v>
+      </c>
+      <c r="G6">
         <v>25.6851626595673</v>
       </c>
-      <c r="I4">
-        <v>300000</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="G5">
-        <v>-100.24241411411499</v>
-      </c>
-      <c r="H5">
-        <v>25.664270895169299</v>
-      </c>
-      <c r="I5">
-        <v>1500000</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.45855324074074072</v>
-      </c>
-      <c r="G6">
-        <v>-100.381548186267</v>
-      </c>
       <c r="H6">
-        <v>25.6642004612821</v>
+        <v>123000</v>
       </c>
       <c r="I6">
-        <v>200000</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G7">
-        <v>-100.318156048963</v>
-      </c>
-      <c r="H7">
-        <v>25.6851626595673</v>
-      </c>
-      <c r="I7">
-        <v>123000</v>
-      </c>
-      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBD8531-5422-4155-B7E0-36ABD391561A}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
